--- a/oviIN_june29/clustering_inputs_v1.2.1/cluster_info.xlsx
+++ b/oviIN_june29/clustering_inputs_v1.2.1/cluster_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/oviIN/clustering_v1.2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/oviIN_june29/clustering_inputs_v1.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041C33F8-C3C0-6849-B4A5-22A2608256B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B388D-2DA6-F54A-A405-4F0DB5C9E5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27400" yWindow="10260" windowWidth="27640" windowHeight="16940" xr2:uid="{8F328861-2D50-5847-A4BD-302CD61550C0}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -389,7 +388,7 @@
   <dimension ref="A1:F2512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F2513"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
